--- a/update_data/data/ecovacs/sale/营销语料.xlsx
+++ b/update_data/data/ecovacs/sale/营销语料.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
@@ -12,11 +12,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
+  <customWorkbookViews>
+    <customWorkbookView name="lulu.wang(王路路) - 个人视图" guid="{3800366F-4CBD-44C9-95EC-565A4AD96174}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1916" windowHeight="819" activeSheetId="1"/>
+  </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="54">
   <si>
     <t>问题</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -476,92 +479,167 @@
     <phoneticPr fontId="16" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">旺宝也想和你多沟通感情，只是还要工作的。听旺宝给您推荐DD56吧，路径规划;蓝鲸清洁系统;漫威主题外观，手机app远程操控，众多优点汇集一身，你感兴趣么？
+    <t>A650</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实体店可以带给您更好的产品体验，价格相差是很小的，在本店绝对会买的实惠用的放心，我的兄弟帝宝，鳌鳌叫着要见你，您想要进店认识一下他吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可以很负责地告诉你，在本店绝对会买的实惠用的放心，而且可以带给您真实的产品体验，地宝说他很想见您，您想要进店认识一下他吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在实体店您可以体验真实的产品，优惠多多，质量港港的，我的兄弟帝宝，它拖地可干净了，您想要进店认识一下他吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般人我不告诉他，本店的产品质量港港的，你看，窗宝宝在等着你呢，您有兴趣进店了解一下窗宝棒棒的擦窗本领吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>偷偷的告诉您，本店的优惠很多哦，还可以有真实的产品体验，快快来进店呼吸沁宝宝给您制造的新鲜空气吧！您有兴趣了解一下吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>营销语料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等价描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网购扫地机器人会不会很便宜？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网购擦窗机器人会不会很便宜？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网购空气净化机器人会不会很便宜？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sale1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sale2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sale3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sale4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sale5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我给你唱个我自创的歌曲吧！要，要，切克闹！旺宝唱歌姐姐笑！进店选购DG36帝宝宝，精彩活动真奇妙！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贵客万福，聊啥都不如让旺宝带您进店领养一个机器人宝宝。给您推荐DG716，7点75厘米纤薄机身，进口电机，蓝鲸清洁系统，和旺宝一起进店看看吧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>听咱们聊天，沁宝A650这个宝宝想毛遂自荐。他说别家空气净化机器人不会走，就他会自主巡航；还有优化的空气动力循环系统等优点，你感兴趣么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我最喜欢我的兄弟窗宝W855，四段清洁，进口电机，它擦窗的本领可厉害啦，您想要进店认识一下他吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DG36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>给您推荐DG36这款高级宝宝，</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>他突出特点就是能LDS扫描建立房屋户型图，所有房间有序清洁；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>蓝鲸清洁系统，一站式清洁到位;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>通过超声波探测，辨识地毯和地面，清洁吸力自动选择；</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF7030A0"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>可通过APP实现在线升级，保持程序系统的最新状态，永不落伍。</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>能力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>港港的。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">旺宝想多和你沟通感情，听旺宝给您推荐DD56，能路径规划又有蓝鲸清洁系统，app远程操控，集众多优点于一身，你感兴趣么？
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>听咱们聊天，沁宝A650这个宝宝想毛遂自荐。他说别家空气净化机器人不会走，就他会自主巡航；还有优化的空气动力循环系统等很多优点，你感兴趣么？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>A650</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>实体店可以带给您更好的产品体验，价格相差是很小的，在本店绝对会买的实惠用的放心，我的兄弟帝宝，鳌鳌叫着要见你，您想要进店认识一下他吗？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>可以很负责地告诉你，在本店绝对会买的实惠用的放心，而且可以带给您真实的产品体验，地宝说他很想见您，您想要进店认识一下他吗？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在实体店您可以体验真实的产品，优惠多多，质量港港的，我的兄弟帝宝，它拖地可干净了，您想要进店认识一下他吗？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般人我不告诉他，本店的产品质量港港的，你看，窗宝宝在等着你呢，您有兴趣进店了解一下窗宝棒棒的擦窗本领吗？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>偷偷的告诉您，本店的优惠很多哦，还可以有真实的产品体验，快快来进店呼吸沁宝宝给您制造的新鲜空气吧！您有兴趣了解一下吗？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>贵客万福，聊啥都不如让旺宝带您进店领养一个机器人宝宝。给您推荐DG716，7点75厘米纤薄机身，日本尼德科无刷电机，蓝鲸清洁系统等优点，高配得任性。你感兴趣么？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>您好，欢迎光临科沃斯欧尚店感受高端智能家电，窗宝一直在等您呢，您要进店去看看它吗？/我最喜欢我的兄弟窗宝，它擦窗的本领可厉害啦，您想要进店认识一下他吗？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我给你唱个我自创的歌曲吧！要，要，切克闹！旺宝唱歌姐姐笑！进店选购沁宝宝，精彩活动真奇妙！/顾客您好，旺宝已经为您开启快速购买科沃斯沁宝的绿色通道，您想了解一下沁宝宝吗？/下面我要宣布一个重磅消息！现在买科沃斯机器人，送一次和旺宝合影的机会，你想进店了解一下沁宝吗/我最喜欢我的兄弟沁宝啦，它会让您呼吸的每一口空气都是新鲜的，您想要认识一下他吗？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>营销语料</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>等价描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网购扫地机器人会不会很便宜？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网购擦窗机器人会不会很便宜？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>网购空气净化机器人会不会很便宜？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sale1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sale2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sale3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sale4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sale5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -789,7 +867,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -828,11 +906,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -846,6 +927,26 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{004BA686-1B70-49E2-9A58-C6F03CCD3197}">
+  <header guid="{004BA686-1B70-49E2-9A58-C6F03CCD3197}" dateTime="2017-12-13T10:19:05" maxSheetId="4" userName="lulu.wang(王路路)" r:id="rId1">
+    <sheetIdMap count="3">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+    </sheetIdMap>
+  </header>
+</headers>
+</file>
+
+<file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1138,7 +1239,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1152,7 +1253,7 @@
   <sheetData>
     <row r="1" spans="1:9" s="2" customFormat="1" ht="12.75" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1161,7 +1262,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1181,13 +1282,13 @@
     </row>
     <row r="2" spans="1:9" s="5" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>30</v>
+      <c r="C2" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>10</v>
@@ -1207,13 +1308,13 @@
     </row>
     <row r="3" spans="1:9" s="5" customFormat="1" ht="99.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="14" t="s">
         <v>48</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>38</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>10</v>
@@ -1233,13 +1334,13 @@
     </row>
     <row r="4" spans="1:9" s="5" customFormat="1" ht="96" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="14" t="s">
         <v>49</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>31</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>10</v>
@@ -1251,7 +1352,7 @@
         <v>19</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>17</v>
@@ -1259,13 +1360,13 @@
     </row>
     <row r="5" spans="1:9" s="5" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>50</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>39</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>10</v>
@@ -1285,13 +1386,13 @@
     </row>
     <row r="6" spans="1:9" s="5" customFormat="1" ht="109.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>40</v>
+        <v>46</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>47</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>10</v>
@@ -1303,21 +1404,21 @@
         <v>21</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>17</v>
+        <v>51</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>7</v>
@@ -1337,13 +1438,13 @@
     </row>
     <row r="8" spans="1:9" ht="124.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>7</v>
@@ -1363,13 +1464,13 @@
     </row>
     <row r="9" spans="1:9" ht="124.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>7</v>
@@ -1389,13 +1490,13 @@
     </row>
     <row r="10" spans="1:9" ht="121.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>8</v>
@@ -1415,13 +1516,13 @@
     </row>
     <row r="11" spans="1:9" ht="183.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>9</v>
@@ -1440,9 +1541,16 @@
       </c>
     </row>
   </sheetData>
+  <customSheetViews>
+    <customSheetView guid="{3800366F-4CBD-44C9-95EC-565A4AD96174}">
+      <selection activeCell="C5" sqref="C5"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1454,6 +1562,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <customSheetViews>
+    <customSheetView guid="{3800366F-4CBD-44C9-95EC-565A4AD96174}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1467,6 +1580,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <customSheetViews>
+    <customSheetView guid="{3800366F-4CBD-44C9-95EC-565A4AD96174}">
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
+  </customSheetViews>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
